--- a/AVSalesBoosterAPI/FormatFiles/Template_Customer.xlsx
+++ b/AVSalesBoosterAPI/FormatFiles/Template_Customer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>MobileNumber</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sector 11 </t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -755,76 +761,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
         <v>700998</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
